--- a/file.xlsx
+++ b/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\robot\pycode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FB5D60-A3B1-43EF-A816-7A9581F4F6AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCAEB2F-92CD-45EA-B4B7-EE0419A54C7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>hostname</t>
   </si>
@@ -39,9 +39,6 @@
     <t>gateway</t>
   </si>
   <si>
-    <t>mgmt_junos</t>
-  </si>
-  <si>
     <t>mac</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>aaa:bbb:ccc:ddd</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>dev-cp00-rou001</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>ex</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>aaa:bbb:ccc:eee</t>
   </si>
   <si>
@@ -121,6 +112,12 @@
   </si>
   <si>
     <t>15.1R4</t>
+  </si>
+  <si>
+    <t>rack</t>
+  </si>
+  <si>
+    <t>mr00</t>
   </si>
 </sst>
 </file>
@@ -164,7 +161,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,16 +447,15 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -470,39 +468,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
       <c r="G2">
         <v>19.399999999999999</v>
@@ -510,22 +508,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>19.399999999999999</v>
@@ -533,22 +531,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>18.100000000000001</v>
@@ -556,22 +554,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>18.100000000000001</v>
@@ -579,48 +577,48 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
